--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_297.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_297.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,696 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(118.78, 126.08)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(116.7, 122.32)]</t>
+          <t>[('0:00:04.860000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[('0:01:21.100000', '0:01:27.580000'), ('0:00:27.460000', '0:00:36.020000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:03.320000', '0:00:06.300000'), ('0:00:00.560000', '0:00:04.260000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1480769230769231</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A'], ['A', 'D', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(58.56, 62.9), (18.26, 24.82)]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(43.926916, 50.765192), (28.450816, 36.229501)]</t>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52)]</t>
+          <t>[('0:00:43.120000', '0:00:59.640000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:09.900000', '0:00:34.680000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1480769230769231</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:7', 'D', 'A'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:43.926916', '0:00:50.765192'), ('0:00:28.450816', '0:00:36.229501')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:05.640000', '0:01:10.540000'), ('0:00:18.320000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(29.5, 31.64)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(35.14, 39.9)]</t>
+          <t>[('0:00:20.580000', '0:00:32.500000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:06.920000', '0:00:13.460000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['E:7', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46)]</t>
+          <t>[['C:7', 'F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:03.509000', '0:00:13.840000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:40.340000', '0:00:43.300000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:49.140000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1201923076923077</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4512820512820513</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E']]</t>
+          <t>[['Eb', 'Ab/5', 'Eb', 'Ab/5']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(30.378072, 35.532902)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(43.926916, 52.959478)]</t>
+          <t>[('0:00:17.016000', '0:00:24.727000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D']]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(46.6, 49.04)]</t>
+          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(124.702789, 130.612267)]</t>
+          <t>[('0:00:10.540000', '0:00:16.680000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
+          <t>[('0:00:12.094553', '0:00:24.840113')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1547619047619048</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G', 'G']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(75.705034, 80.407074)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(65.382154, 77.68873)]</t>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(8.34, 16.5)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(21.44, 24.72)]</t>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(32.32, 33.88), (32.04, 33.42), (7.7, 12.06)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(10.76, 23.6), (47.14, 55.2), (0.36, 5.6)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
